--- a/schedule/tracker.xlsx
+++ b/schedule/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/Documents/eagle/projects/open_covg_daq_pcb/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94505712-ABE4-D74B-B1C1-32BC085A1275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A978FE44-941C-484D-9419-91E8728F693C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +653,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://www.digikey.com/MyDigiKey/Home/ResumeOrder?webId=305426708&amp;accessId=82908" xr:uid="{E85675A4-9C30-D14C-A02C-741E5077A6DB}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{E85675A4-9C30-D14C-A02C-741E5077A6DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule/tracker.xlsx
+++ b/schedule/tracker.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/Documents/eagle/projects/open_covg_daq_pcb/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A978FE44-941C-484D-9419-91E8728F693C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627CC2C-515A-EB4F-B1C2-952CC1DC32C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15600" windowHeight="21140" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/schedule/tracker.xlsx
+++ b/schedule/tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/Documents/eagle/projects/open_covg_daq_pcb/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627CC2C-515A-EB4F-B1C2-952CC1DC32C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEA48A6-6439-FD4C-84DB-04040B8DE91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15600" windowHeight="21140" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
+    <workbookView xWindow="0" yWindow="3460" windowWidth="26080" windowHeight="20540" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Design Power Supplies </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total up power and current </t>
   </si>
   <si>
@@ -84,9 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">Create a block diagram </t>
-  </si>
-  <si>
-    <t>Start by hand</t>
   </si>
   <si>
     <t xml:space="preserve">Have an extra cart that includes interesting parts </t>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>Schematic for DAC</t>
+  </si>
+  <si>
+    <t>Start by hand, created draw.io version</t>
+  </si>
+  <si>
+    <t>Design Power Supplies and power supply system</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -525,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -570,10 +570,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -581,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -645,10 +645,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/schedule/tracker.xlsx
+++ b/schedule/tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/Documents/eagle/projects/open_covg_daq_pcb/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEA48A6-6439-FD4C-84DB-04040B8DE91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4729DF3-CFE8-4E42-B2D1-80D5096AE27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3460" windowWidth="26080" windowHeight="20540" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26080" windowHeight="20540" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,26 +86,27 @@
     <t xml:space="preserve">Have an extra cart that includes interesting parts </t>
   </si>
   <si>
+    <t>Select and add monitoring ADC</t>
+  </si>
+  <si>
+    <t>Select and add low BW DAC</t>
+  </si>
+  <si>
+    <t>Schematic for ADC</t>
+  </si>
+  <si>
+    <t>Schematic for DAC</t>
+  </si>
+  <si>
+    <t>Start by hand, created draw.io version</t>
+  </si>
+  <si>
+    <t>Design Power Supplies and power supply system</t>
+  </si>
+  <si>
     <t>Actually connect on schematic
-Track I/O to determine if expanders are needed</t>
-  </si>
-  <si>
-    <t>Select and add monitoring ADC</t>
-  </si>
-  <si>
-    <t>Select and add low BW DAC</t>
-  </si>
-  <si>
-    <t>Schematic for ADC</t>
-  </si>
-  <si>
-    <t>Schematic for DAC</t>
-  </si>
-  <si>
-    <t>Start by hand, created draw.io version</t>
-  </si>
-  <si>
-    <t>Design Power Supplies and power supply system</t>
+Track I/O to determine if expanders are needed
+Will use Python code to synchronize board and UCF</t>
   </si>
 </sst>
 </file>
@@ -483,7 +484,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -545,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -565,7 +566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -573,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -581,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -597,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -605,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -648,7 +649,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/schedule/tracker.xlsx
+++ b/schedule/tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/Documents/eagle/projects/open_covg_daq_pcb/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4729DF3-CFE8-4E42-B2D1-80D5096AE27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB5C170-8F60-9048-A5CC-26442E06905E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26080" windowHeight="20540" xr2:uid="{915DFBD2-32D0-0A46-9CC1-E54BC8CB7CA5}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Step Number</t>
   </si>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Add level shifters</t>
   </si>
   <si>
     <t xml:space="preserve">Link to ADC simulations and voltage ranges </t>
@@ -107,6 +105,16 @@
     <t>Actually connect on schematic
 Track I/O to determine if expanders are needed
 Will use Python code to synchronize board and UCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to add low-voltage level shifters for FET switches 
+Derive from -15 V </t>
+  </si>
+  <si>
+    <t>Add BJT level shifters</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -484,7 +492,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -537,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -546,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -574,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -582,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -592,13 +600,19 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -606,15 +620,21 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -622,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -630,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -638,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -646,10 +666,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
